--- a/data_table/AreaEffect.xlsx
+++ b/data_table/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23835" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -168,10 +168,7 @@
     <t>上官翎技能2区域选择</t>
   </si>
   <si>
-    <t>(先不用)上官翎技能3位移中区域选择</t>
-  </si>
-  <si>
-    <t>上官翎技能3位移中区域选择</t>
+    <t>日炎伤害区域</t>
   </si>
 </sst>
 </file>
@@ -179,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -194,19 +191,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -215,9 +226,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,15 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,44 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -299,31 +281,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -331,7 +321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,187 +354,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,15 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -586,6 +574,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,8 +629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,15 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1162,7 +1159,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1303,7 +1300,7 @@
         <v>14001001</v>
       </c>
       <c r="J4">
-        <v>15008002</v>
+        <v>15008005</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1311,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>13001004</v>
+        <v>13001005</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1326,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>4001004</v>
+        <v>4002020</v>
       </c>
       <c r="J5">
-        <v>15008002</v>
+        <v>15008005</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/AreaEffect.xlsx
+++ b/data_table/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,12 +334,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1300,10 +1300,10 @@
         <v>14001001</v>
       </c>
       <c r="J4">
-        <v>15008005</v>
+        <v>15008014</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1330,9 +1330,6 @@
       </c>
       <c r="I5">
         <v>4002020</v>
-      </c>
-      <c r="J5">
-        <v>15008005</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/AreaEffect.xlsx
+++ b/data_table/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>日炎伤害区域</t>
+  </si>
+  <si>
+    <t>上官唯普通命中群攻的选取</t>
+  </si>
+  <si>
+    <t>唐依散射选择</t>
   </si>
 </sst>
 </file>
@@ -334,23 +340,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -653,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,16 +677,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,10 +698,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,28 +722,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -740,19 +752,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,39 +773,45 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -807,6 +822,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1156,19 +1177,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="24.75" customWidth="1"/>
@@ -1179,7 +1200,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1191,7 +1212,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1223,7 +1244,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -1243,28 +1264,28 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
@@ -1278,22 +1299,22 @@
       <c r="B4">
         <v>13001003</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>4000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
       <c r="I4">
@@ -1310,26 +1331,84 @@
       <c r="B5">
         <v>13001005</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>4000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
       <c r="I5">
         <v>4002020</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>13001006</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>40000</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>4002023</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:9">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>13001010</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3001013</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/AreaEffect.xlsx
+++ b/data_table/AreaEffect.xlsx
@@ -19,6 +19,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Zxy</author>
+    <author>94067</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0">
@@ -39,11 +40,12 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 圆</t>
+0 圆
+1 矩形</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -52,7 +54,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>Zxy:</t>
+          <t>94067:</t>
         </r>
         <r>
           <rPr>
@@ -61,12 +63,58 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0 技能释放者
-1 技能目标者</t>
+0 无 上下文传下来的点 也就是上一步操作传的点</t>
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="G3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 无
+1 释放技能者 到 技能目标(或技能目标点) 的方向</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>94067:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 圆：[1]半径
+1 矩形： [1]长 [2] 宽
+2 扇形：[1]半径 [2]角度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -114,10 +162,16 @@
     <t>areaType</t>
   </si>
   <si>
-    <t>centerType</t>
-  </si>
-  <si>
-    <t>range</t>
+    <t>startPosType</t>
+  </si>
+  <si>
+    <t>startPosShiftDirType</t>
+  </si>
+  <si>
+    <t>startPosShiftDistance</t>
+  </si>
+  <si>
+    <t>rangeParam</t>
   </si>
   <si>
     <t>selectEntityType</t>
@@ -150,10 +204,16 @@
     <t>区域类型</t>
   </si>
   <si>
-    <t>区域中心类型</t>
-  </si>
-  <si>
-    <t>范围(*1000 适用于圆形区域)</t>
+    <t>开始点类型</t>
+  </si>
+  <si>
+    <t>开始点位移方向类型</t>
+  </si>
+  <si>
+    <t>开始点位移方向的距离(*1000)</t>
+  </si>
+  <si>
+    <t>影响范围的参数 半径 或者 长宽等  (*1000)</t>
   </si>
   <si>
     <t>选择实体类型</t>
@@ -174,7 +234,34 @@
     <t>上官唯普通命中群攻的选取</t>
   </si>
   <si>
-    <t>唐依散射选择</t>
+    <t>唐依 W 技能散射选择</t>
+  </si>
+  <si>
+    <t>唐依 E 技能选择区域</t>
+  </si>
+  <si>
+    <t>14001003,14001004</t>
+  </si>
+  <si>
+    <t>唐依 R 技能选择区域</t>
+  </si>
+  <si>
+    <t>4001008,14001021</t>
+  </si>
+  <si>
+    <t>怪物 Q 技能选择区域</t>
+  </si>
+  <si>
+    <t>6000,3000</t>
+  </si>
+  <si>
+    <t>4002004</t>
+  </si>
+  <si>
+    <t>大怪 1 攻击3层满层群伤区域</t>
+  </si>
+  <si>
+    <t>大怪 1 技能 周围群伤</t>
   </si>
 </sst>
 </file>
@@ -340,29 +427,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -665,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,16 +758,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -698,52 +779,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -752,16 +833,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,45 +857,42 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -823,10 +904,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,26 +1261,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="24.75" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="5" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="24.75" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,13 +1297,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1227,72 +1312,90 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+    <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1300,31 +1403,37 @@
         <v>13001003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>4000</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>14001001</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>15008014</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1332,28 +1441,34 @@
         <v>13001005</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>4000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>4002020</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:9">
+    <row r="6" customFormat="1" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1361,28 +1476,37 @@
         <v>13001006</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>40000</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>4002023</v>
       </c>
+      <c r="L6">
+        <v>15008019</v>
+      </c>
     </row>
-    <row r="8" customFormat="1" spans="1:9">
+    <row r="8" customFormat="1" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1390,25 +1514,206 @@
         <v>13001010</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3001013</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:11">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>13001011</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:11">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>13001012</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:11">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>13002030</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>6000</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="I8">
-        <v>3001013</v>
+      <c r="K16" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>13002040</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>4002030</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:11">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>13002041</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>4002031</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/AreaEffect.xlsx
+++ b/data_table/AreaEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>怪物 Q 技能选择区域</t>
   </si>
   <si>
-    <t>6000,3000</t>
+    <t>4000,2000</t>
   </si>
   <si>
     <t>4002004</t>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -283,34 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -327,6 +299,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -336,41 +347,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,10 +400,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -432,11 +437,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -447,49 +447,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,121 +585,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,21 +638,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -685,6 +670,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,148 +743,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,52 +916,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -1541,7 +1541,7 @@
         <v>3001013</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:11">
+    <row r="9" customFormat="1" spans="1:12">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1574,6 +1574,9 @@
       </c>
       <c r="K9" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="L9">
+        <v>15008029</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:11">
@@ -1611,7 +1614,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:11">
+    <row r="16" customFormat="1" spans="1:12">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1644,6 +1647,9 @@
       </c>
       <c r="K16" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="L16">
+        <v>15008030</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1681,7 +1687,7 @@
         <v>4002030</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:11">
+    <row r="20" customFormat="1" spans="1:12">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1714,6 +1720,9 @@
       </c>
       <c r="K20">
         <v>4002031</v>
+      </c>
+      <c r="L20">
+        <v>15008031</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1739,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1747,7 +1756,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/AreaEffect.xlsx
+++ b/data_table/AreaEffect.xlsx
@@ -11,7 +11,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -136,7 +149,8 @@
 1 所有友方单位(不包括自己)
 2 所有敌人
 3 所有友方和敌人(不包括自己)
-4 所有实体</t>
+4 所有实体
+5 自己</t>
         </r>
       </text>
     </comment>
@@ -145,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -262,12 +276,18 @@
   </si>
   <si>
     <t>大怪 1 技能 周围群伤</t>
+  </si>
+  <si>
+    <t>测试道具 击晕区域选择</t>
+  </si>
+  <si>
+    <t>测试道具 加血区域选择（选自己）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1261,16 +1281,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="1" customWidth="1"/>
@@ -1723,6 +1743,79 @@
       </c>
       <c r="L20">
         <v>15008031</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>13050001</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>14050001</v>
+      </c>
+      <c r="L23">
+        <v>15008014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>13050002</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>4005001</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/AreaEffect.xlsx
+++ b/data_table/AreaEffect.xlsx
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -447,12 +450,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1284,7 +1287,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1365,13 +1368,13 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -1379,40 +1382,40 @@
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1423,10 +1426,10 @@
         <v>13001003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1461,10 +1464,10 @@
         <v>13001005</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1496,10 +1499,10 @@
         <v>13001006</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1534,10 +1537,10 @@
         <v>13001010</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1569,10 +1572,10 @@
         <v>13001011</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1593,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9">
         <v>15008029</v>
@@ -1607,10 +1610,10 @@
         <v>13001012</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1631,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:12">
@@ -1642,10 +1645,10 @@
         <v>13002030</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1660,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L16">
         <v>15008030</v>
@@ -1680,10 +1683,10 @@
         <v>13002040</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1715,10 +1718,10 @@
         <v>13002041</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1753,10 +1756,10 @@
         <v>13050001</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1791,10 +1794,10 @@
         <v>13050002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>0</v>
